--- a/analysis/pre_gemini_data/participant360/medium.xlsx
+++ b/analysis/pre_gemini_data/participant360/medium.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,167 +422,163 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>a4rg4</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg6</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>args</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>codnbody</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>condstat3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>condstate</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>except</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>exteral</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>exterbal5</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>external2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>loopstate</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>methddec</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>methdocall3</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>methdoclal5</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>methodcall5</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>params</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
@@ -652,20 +636,20 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I3" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J3" t="n">
         <v>19</v>
@@ -674,7 +658,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
@@ -690,7 +674,7 @@
         <v>36</v>
       </c>
       <c r="R3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S3" t="n">
         <v>17</v>
@@ -699,7 +683,7 @@
         <v>8</v>
       </c>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
         <v>7</v>
@@ -714,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="AA3" t="n">
         <v>2</v>
@@ -733,7 +717,7 @@
       </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -749,20 +733,20 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" t="n">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="I4" t="n">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J4" t="n">
         <v>25</v>
@@ -771,7 +755,7 @@
         <v>22</v>
       </c>
       <c r="L4" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -787,7 +771,7 @@
         <v>431</v>
       </c>
       <c r="R4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S4" t="n">
         <v>36</v>
@@ -796,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>13</v>
@@ -811,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>400</v>
+        <v>164</v>
       </c>
       <c r="AA4" t="n">
         <v>3</v>
@@ -830,7 +814,7 @@
       </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -846,20 +830,20 @@
         <v>1359.76</v>
       </c>
       <c r="D5" t="n">
-        <v>1209.74</v>
+        <v>842.6799999999999</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>767.4299999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>8017.31</v>
+        <v>7650.25</v>
       </c>
       <c r="H5" t="n">
-        <v>60389.85</v>
+        <v>56193.68</v>
       </c>
       <c r="I5" t="n">
-        <v>38849.76</v>
+        <v>36180.63</v>
       </c>
       <c r="J5" t="n">
         <v>10319.65</v>
@@ -868,7 +852,7 @@
         <v>7774.83</v>
       </c>
       <c r="L5" t="n">
-        <v>26428.38</v>
+        <v>24760.32</v>
       </c>
       <c r="M5" t="n">
         <v>2335.95</v>
@@ -884,7 +868,7 @@
         <v>85247.96000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>8183.65</v>
+        <v>8016.77</v>
       </c>
       <c r="S5" t="n">
         <v>12638.02</v>
@@ -893,7 +877,7 @@
         <v>3387.04</v>
       </c>
       <c r="U5" t="n">
-        <v>2152.24</v>
+        <v>2035.41</v>
       </c>
       <c r="V5" t="n">
         <v>4421.35</v>
@@ -908,7 +892,7 @@
         <v>433.76</v>
       </c>
       <c r="Z5" t="n">
-        <v>144628.21</v>
+        <v>58743.98</v>
       </c>
       <c r="AA5" t="n">
         <v>1351.39</v>
@@ -927,7 +911,7 @@
       </c>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="n">
-        <v>650.71</v>
+        <v>533.88</v>
       </c>
     </row>
     <row r="6">
@@ -937,94 +921,94 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.44</v>
+        <v>1.09</v>
       </c>
       <c r="C6" t="n">
-        <v>0.32</v>
+        <v>0.78</v>
       </c>
       <c r="D6" t="n">
-        <v>0.28</v>
+        <v>0.49</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.18</v>
+        <v>0.44</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>4.4</v>
       </c>
       <c r="H6" t="n">
-        <v>14.06</v>
+        <v>32.34</v>
       </c>
       <c r="I6" t="n">
-        <v>9.050000000000001</v>
+        <v>20.82</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4</v>
+        <v>5.94</v>
       </c>
       <c r="K6" t="n">
-        <v>1.81</v>
+        <v>4.48</v>
       </c>
       <c r="L6" t="n">
-        <v>6.15</v>
+        <v>14.25</v>
       </c>
       <c r="M6" t="n">
-        <v>0.54</v>
+        <v>1.34</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>0.39</v>
+        <v>0.96</v>
       </c>
       <c r="P6" t="n">
-        <v>0.91</v>
+        <v>2.26</v>
       </c>
       <c r="Q6" t="n">
         <v>33.34</v>
       </c>
       <c r="R6" t="n">
-        <v>1.91</v>
+        <v>4.61</v>
       </c>
       <c r="S6" t="n">
-        <v>2.94</v>
+        <v>7.27</v>
       </c>
       <c r="T6" t="n">
-        <v>0.79</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5</v>
+        <v>1.17</v>
       </c>
       <c r="V6" t="n">
-        <v>1.03</v>
+        <v>2.54</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9</v>
+        <v>2.22</v>
       </c>
       <c r="X6" t="n">
-        <v>1.41</v>
+        <v>3.49</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>33.68</v>
+        <v>33.81</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.31</v>
+        <v>0.78</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.26</v>
+        <v>0.65</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.48</v>
+        <v>1.19</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7">
@@ -1040,20 +1024,20 @@
         <v>271.95</v>
       </c>
       <c r="D7" t="n">
-        <v>302.44</v>
+        <v>280.89</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>255.81</v>
       </c>
       <c r="G7" t="n">
-        <v>320.69</v>
+        <v>318.76</v>
       </c>
       <c r="H7" t="n">
-        <v>296.03</v>
+        <v>297.32</v>
       </c>
       <c r="I7" t="n">
-        <v>308.33</v>
+        <v>306.62</v>
       </c>
       <c r="J7" t="n">
         <v>412.79</v>
@@ -1062,7 +1046,7 @@
         <v>353.4</v>
       </c>
       <c r="L7" t="n">
-        <v>322.3</v>
+        <v>321.56</v>
       </c>
       <c r="M7" t="n">
         <v>467.19</v>
@@ -1078,7 +1062,7 @@
         <v>197.79</v>
       </c>
       <c r="R7" t="n">
-        <v>282.19</v>
+        <v>286.31</v>
       </c>
       <c r="S7" t="n">
         <v>351.06</v>
@@ -1087,7 +1071,7 @@
         <v>338.7</v>
       </c>
       <c r="U7" t="n">
-        <v>430.45</v>
+        <v>508.85</v>
       </c>
       <c r="V7" t="n">
         <v>340.1</v>
@@ -1102,7 +1086,7 @@
         <v>433.76</v>
       </c>
       <c r="Z7" t="n">
-        <v>361.57</v>
+        <v>358.19</v>
       </c>
       <c r="AA7" t="n">
         <v>450.46</v>
@@ -1121,7 +1105,7 @@
       </c>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="n">
-        <v>325.35</v>
+        <v>533.88</v>
       </c>
     </row>
     <row r="8">
@@ -1220,146 +1204,6 @@
       <c r="AG8" t="n">
         <v>533.88</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
